--- a/biology/Botanique/Kōraku-en/Kōraku-en.xlsx
+++ b/biology/Botanique/Kōraku-en/Kōraku-en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C5%8Draku-en</t>
+          <t>Kōraku-en</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Kōrakuen ou Kōraku-en (後楽園?) est un jardin japonais situé à Okayama, au sud de l'île de Honshū. Ce jardin de promenade (kaiyūshiki teien) est un des trois jardins les plus célèbres du Japon (三名園, Sanmeien?), avec Kenroku-en à Kanazawa et Kairaku-en à Mito.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C5%8Draku-en</t>
+          <t>Kōraku-en</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Kōraku se trouve sur un banc de sable au milieu du fleuve Asahi, qui traverse la ville d'Okayama. Une dérivation de celui-ci traverse le jardin en suivant plusieurs méandres, forme un étang, puis se jette dans une petite chute d'eau.
 Le château d'Okayama (岡山城, Okayama-jo?) se trouve en face du jardin. Sa silhouette noire, qui lui a valu le surnom de « château-corbeau » (鴉城, U-jo?), est visible depuis de nombreux points du jardin.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C5%8Draku-en</t>
+          <t>Kōraku-en</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1687, Tsunamasa Ikeda ordonne à Nagatada Tsuda de commencer la construction du Kōraku-en ; la construction se termine en 1700. Le jardin a conservé son aspect d'origine, à l'exception de quelques modifications effectuées par les daimyos successifs.
 Le Kōraku-en est l'un des rares jardins dont on connaît avec précision l'évolution au cours de l'histoire, en raison des nombreuses peintures de l'époque Edo qui le représentent, des archives de la famille Ikeda et des documents conservés. Le jardin servait de lieu de repos pour les daimyos, où ils accueillaient aussi leurs visiteurs importants. La population était autorisée à visiter le jardin à certaines dates. En 1884, la préfecture d'Okayama devient propriétaire de Kōraku-en et le jardin est ouvert au public. Il subit d'importants dégâts lors des inondations de 1934, puis lors de bombardements en 1945, à la fin de la Seconde Guerre mondiale. Il est restauré à partir des documents conservés depuis l'époque d'Edo.
-En mars 1922, le jardin paysager est classé site historique, monument naturel et lieu de beauté pittoresque[1],[2].
+En mars 1922, le jardin paysager est classé site historique, monument naturel et lieu de beauté pittoresque,.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K%C5%8Draku-en</t>
+          <t>Kōraku-en</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,9 +597,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom « Kōrakuen », littéralement « jardin de la réjouissance ultérieure », fait référence à un passage d'un texte chinois, le Gakuyoro-ki de Hanchuen, où il est mentionné qu'un souverain doit être le premier à se soucier, avant son peuple, et le dernier à se réjouir, après son peuple[3]. Le Koishikawa Kōrakuen de Tōkyō est nommé d'après ce même principe.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom « Kōrakuen », littéralement « jardin de la réjouissance ultérieure », fait référence à un passage d'un texte chinois, le Gakuyoro-ki de Hanchuen, où il est mentionné qu'un souverain doit être le premier à se soucier, avant son peuple, et le dernier à se réjouir, après son peuple. Le Koishikawa Kōrakuen de Tōkyō est nommé d'après ce même principe.
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>K%C5%8Draku-en</t>
+          <t>Kōraku-en</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Lieux remarquables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pavillon Enyo-tei (延養亭?) : utilisé comme résidence du daimyo quand il visitait le jardin, ce pavillon occupe le centre du site, et offre une vue sur plusieurs autres lieux, dont Sawa-no-ike, la colline Yuishinzan, et le mont Misao au loin.
 Scène nō (能舞台?) : Tsunamasa Ikeda était féru de nō, et lui-même acteur talentueux. Il a laissé une impressionnante collection de costumes à sa mort. Les habitants de la ville étaient parfois autorisés à visiter la scène. La scène actuelle a été reconstruite après la Seconde Guerre mondiale.
